--- a/Test_Results/Test_Results_7/tri_results.xlsx
+++ b/Test_Results/Test_Results_7/tri_results.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(0.59890,0.30008)</t>
+          <t>(0.5989,0.30008)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -474,7 +474,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-0.01630</t>
+          <t>-0.0163</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -489,22 +489,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>(0.72604,0.23546)</t>
+          <t>(0.3082,0.27783)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(0.72515,0.23674)</t>
+          <t>(0.30913,0.27897)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.11116</t>
+          <t>-0.11603</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-0.25579</t>
+          <t>-0.2278</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -519,22 +519,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>(0.00653,0.41335)</t>
+          <t>(0.05246,0.01999)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(0.00755,0.41760)</t>
+          <t>(0.05195,0.01774)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.12706</t>
+          <t>0.06305</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-0.84960</t>
+          <t>0.45022</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -549,22 +549,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>(0.49241,0.00485)</t>
+          <t>(0.39949,0.19011)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(0.49243,0.01158)</t>
+          <t>(0.39838,0.1891)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.00344</t>
+          <t>0.13959</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-1.34693</t>
+          <t>0.20268</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -579,22 +579,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>(0.55894,0.38344)</t>
+          <t>(0.78175,0.31904)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(0.55816,0.38450)</t>
+          <t>(0.78045,0.31426)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.09830</t>
+          <t>0.16254</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-0.21203</t>
+          <t>0.95531</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -609,22 +609,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(0.57862,0.17955)</t>
+          <t>(0.2981,0.47984)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(0.57878,0.17502)</t>
+          <t>(0.2977,0.47797)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-0.01922</t>
+          <t>0.04988</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.90764</t>
+          <t>0.37359</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -639,22 +639,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(0.51501,0.04402)</t>
+          <t>(0.50199,0.23276)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(0.51500,0.04356)</t>
+          <t>(0.5032,0.23243)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00138</t>
+          <t>-0.15121</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.09199</t>
+          <t>0.06633</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -669,22 +669,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>(0.69532,0.13022)</t>
+          <t>(0.52727,0.4496)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(0.69479,0.13350)</t>
+          <t>(0.52899,0.44822)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.06675</t>
+          <t>-0.21424</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-0.65613</t>
+          <t>0.27622</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -699,22 +699,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>(0.69676,0.19372)</t>
+          <t>(0.72516,0.45098)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(0.69980,0.19218)</t>
+          <t>(0.72779,0.45464)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-0.37964</t>
+          <t>-0.32872</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.30722</t>
+          <t>-0.73229</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -729,22 +729,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(0.08595,0.10227)</t>
+          <t>(0.56015,0.14296)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(0.08749,0.09822)</t>
+          <t>(0.56019,0.14323)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-0.19193</t>
+          <t>-0.0053</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.80997</t>
+          <t>-0.05451</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
